--- a/Uploads/Listening_Valid.xlsx
+++ b/Uploads/Listening_Valid.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>Type</t>
   </si>
@@ -424,21 +424,9 @@
     <t xml:space="preserve"> A speech will be made.</t>
   </si>
   <si>
-    <t>AA-D-01.mp3</t>
-  </si>
-  <si>
-    <t>CC-D-06.mp3</t>
-  </si>
-  <si>
-    <t>CC-M-04.mp3</t>
-  </si>
-  <si>
     <t>EE-M-09.mp3</t>
   </si>
   <si>
-    <t>BB-D-01.mp3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jack’s assistant</t>
   </si>
   <si>
@@ -466,7 +454,16 @@
     <t>source 1</t>
   </si>
   <si>
-    <t>4,1</t>
+    <t>AA-D-01.mp4</t>
+  </si>
+  <si>
+    <t>BB-D-01.mp4</t>
+  </si>
+  <si>
+    <t>CC-D-06.mp4</t>
+  </si>
+  <si>
+    <t>CC-M-04.mp4</t>
   </si>
 </sst>
 </file>
@@ -946,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,16 +1028,16 @@
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1054,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1066,20 +1063,20 @@
       <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>98</v>
+      <c r="J6" s="9">
+        <v>4</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1151,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1248,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1345,10 +1342,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1444,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>

--- a/Uploads/Listening_Valid.xlsx
+++ b/Uploads/Listening_Valid.xlsx
@@ -454,16 +454,16 @@
     <t>source 1</t>
   </si>
   <si>
-    <t>AA-D-01.mp4</t>
-  </si>
-  <si>
-    <t>BB-D-01.mp4</t>
-  </si>
-  <si>
-    <t>CC-D-06.mp4</t>
-  </si>
-  <si>
-    <t>CC-M-04.mp4</t>
+    <t>AA-D-01.mp3</t>
+  </si>
+  <si>
+    <t>BB-D-01.mp3</t>
+  </si>
+  <si>
+    <t>CC-D-06.mp3</t>
+  </si>
+  <si>
+    <t>CC-M-04.mp3</t>
   </si>
 </sst>
 </file>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
